--- a/Dashboard_input_small_anonymous.xlsx
+++ b/Dashboard_input_small_anonymous.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="5700"/>
   </bookViews>
   <sheets>
-    <sheet name="Profi_auszug_524_test_small_dat" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>Fördermaßnahme</t>
   </si>
@@ -38,18 +38,6 @@
   </si>
   <si>
     <t>Projektsumme</t>
-  </si>
-  <si>
-    <t>Eigenmittel des Antragstellers</t>
-  </si>
-  <si>
-    <t>Drittmittel</t>
-  </si>
-  <si>
-    <t>Zuwendung</t>
-  </si>
-  <si>
-    <t>Förderquote</t>
   </si>
   <si>
     <t>Zuwendungsempfänger</t>
@@ -1042,15 +1030,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,31 +1099,19 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>42795</v>
@@ -1149,67 +1125,55 @@
       <c r="H2">
         <v>576157</v>
       </c>
-      <c r="I2">
-        <v>230463</v>
+      <c r="I2" t="s">
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>345694</v>
-      </c>
-      <c r="L2">
+        <v>61273</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
         <v>61273</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2">
-        <v>61273</v>
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>42795</v>
@@ -1223,67 +1187,55 @@
       <c r="H3">
         <v>288890</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>346668</v>
-      </c>
-      <c r="L3">
-        <v>120</v>
+        <v>64289</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3">
-        <v>64289</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3">
+        <v>64283</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
         <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3">
-        <v>64283</v>
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>42795</v>
@@ -1297,67 +1249,55 @@
       <c r="H4">
         <v>364380</v>
       </c>
-      <c r="I4">
-        <v>145752</v>
+      <c r="I4" t="s">
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>218628</v>
-      </c>
-      <c r="L4">
-        <v>60</v>
+        <v>27777</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4">
         <v>27777</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="D5" t="s">
         <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4">
-        <v>27777</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>42856</v>
@@ -1371,67 +1311,55 @@
       <c r="H5">
         <v>332361</v>
       </c>
-      <c r="I5">
-        <v>132945</v>
+      <c r="I5" t="s">
+        <v>63</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>199416</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
+        <v>66121</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5">
         <v>66121</v>
       </c>
-      <c r="O5" t="s">
-        <v>43</v>
-      </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5">
-        <v>66121</v>
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>42856</v>
@@ -1445,67 +1373,55 @@
       <c r="H6">
         <v>192655</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>64</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>231186</v>
-      </c>
-      <c r="L6">
-        <v>120</v>
+        <v>50931</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6">
-        <v>50931</v>
-      </c>
-      <c r="O6" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6">
+        <v>50937</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S6">
-        <v>50937</v>
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="X6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>42856</v>
@@ -1519,67 +1435,55 @@
       <c r="H7">
         <v>288544</v>
       </c>
-      <c r="I7">
-        <v>115418</v>
+      <c r="I7" t="s">
+        <v>61</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>173126</v>
-      </c>
-      <c r="L7">
-        <v>60</v>
+        <v>64289</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7">
-        <v>64289</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <v>64283</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7">
-        <v>64283</v>
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="X7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1">
         <v>42826</v>
@@ -1593,67 +1497,55 @@
       <c r="H8">
         <v>287674</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>65</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>345208.8</v>
-      </c>
-      <c r="L8">
-        <v>120</v>
+        <v>10117</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8">
-        <v>10117</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <v>13347</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8">
-        <v>13347</v>
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>42826</v>
@@ -1667,67 +1559,55 @@
       <c r="H9">
         <v>546459</v>
       </c>
-      <c r="I9">
-        <v>27323</v>
+      <c r="I9" t="s">
+        <v>66</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>519136</v>
-      </c>
-      <c r="L9">
-        <v>95</v>
+        <v>67663</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9">
-        <v>67663</v>
-      </c>
-      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9">
+        <v>66123</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="P9" t="s">
+      <c r="D10" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9">
-        <v>66123</v>
-      </c>
-      <c r="T9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
       </c>
       <c r="E10" s="1">
         <v>42826</v>
@@ -1741,53 +1621,41 @@
       <c r="H10">
         <v>540480</v>
       </c>
-      <c r="I10">
-        <v>270240</v>
+      <c r="I10" t="s">
+        <v>67</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>270240</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
+        <v>10969</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10">
         <v>10969</v>
       </c>
-      <c r="O10" t="s">
-        <v>52</v>
-      </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10">
-        <v>10969</v>
+        <v>48</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" t="s">
-        <v>52</v>
-      </c>
-      <c r="W10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
